--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_39.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77179.09234173837</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77179.09234173837</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1187805372.494885</v>
+        <v>43081266.03820647</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12046.50430026731</v>
+        <v>938210.6175260332</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23705.00889409304</v>
+        <v>1808470.207674856</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35357.41636198843</v>
+        <v>2678729.79782368</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>47253.17510772285</v>
+        <v>3548117.142645524</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>59148.93385345727</v>
+        <v>4417504.487467369</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71044.62681977366</v>
+        <v>5286891.832289211</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82940.37099811582</v>
+        <v>6156279.17711105</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>94836.12608545624</v>
+        <v>7025666.521932889</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>106731.8848311907</v>
+        <v>7895053.866754727</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>118627.6435769251</v>
+        <v>8764441.211576564</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>130523.4023226596</v>
+        <v>9633828.556398403</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>142419.15741</v>
+        <v>10503215.90122025</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>154314.9161557344</v>
+        <v>11372603.2460421</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>166210.6749014688</v>
+        <v>12241990.59086395</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>178106.4336472034</v>
+        <v>13111377.9356858</v>
       </c>
     </row>
   </sheetData>
